--- a/public/templates/items.xlsx
+++ b/public/templates/items.xlsx
@@ -8,27 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivid\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1361D04-C158-4C57-8701-539AC10DFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDF129-072B-4F9D-881C-3F9C75080331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="1515" windowWidth="14490" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11565" yWindow="855" windowWidth="17115" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="展示商品リスト" sheetId="1" r:id="rId1"/>
+    <sheet name="マニュアル" sheetId="2" r:id="rId1"/>
+    <sheet name="items" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>item_no</t>
   </si>
   <si>
     <t>味のちぬや</t>
-  </si>
-  <si>
-    <t>JFSA</t>
   </si>
   <si>
     <t>チーズメンチ　60g×10個</t>
@@ -86,6 +95,20 @@
   </si>
   <si>
     <t>maker_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展示会売価</t>
+    <rPh sb="0" eb="3">
+      <t>テンジカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QRコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,87 +443,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFE4919-89A7-4CED-9F36-2C431FD15896}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="str">
+        <f>"aaa,"&amp;A2</f>
+        <v>aaa,11</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F9" si="0">"aaa,"&amp;A3</f>
+        <v>aaa,101</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,102</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>113</v>
       </c>
@@ -508,81 +577,116 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,113</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,114</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,115</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,116</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>aaa,117</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/items.xlsx
+++ b/public/templates/items.xlsx
@@ -1,72 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivid\OneDrive\デスクトップ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDF129-072B-4F9D-881C-3F9C75080331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="855" windowWidth="17115" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="10608"/>
   </bookViews>
   <sheets>
     <sheet name="マニュアル" sheetId="2" r:id="rId1"/>
     <sheet name="items" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+  <si>
+    <t>ＱＲコード作成　テンプレートファイル</t>
+  </si>
+  <si>
+    <r>
+      <t>（ファイル名は　items.xlsx　は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です　名称変更しないでください）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>（シート名items　は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です　シートは増やしても問題ありませんが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>itemsシートしかアップロードしないため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、合計データにしておいてください）</t>
+    </r>
+  </si>
+  <si>
+    <t>（xlsx　なので、マクロは作成できません）</t>
+  </si>
+  <si>
+    <t>QRアプリの
+データベースに
+必須です
+名前を変更
+しないでください</t>
+  </si>
   <si>
     <t>item_no</t>
   </si>
   <si>
+    <t>商品アイテムの番号です（重複は不可です）</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>商品アイテムの名前です（重複は可です）</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>ブース名、”ＪＦＳＡ”など通称などに使えます（決まりはありません）</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>メーカー名です（重複は可です）</t>
+  </si>
+  <si>
+    <t>maker_code</t>
+  </si>
+  <si>
+    <t>company_nameに紐づくコードです（このコードはメーカー集計、スキャン時に保存されます）</t>
+  </si>
+  <si>
+    <t>プライスカード用
+増やしたり、
+減らしたり
+自由です</t>
+  </si>
+  <si>
+    <t>QRコード</t>
+  </si>
+  <si>
+    <t>大事な式が入っています　削除しないでください</t>
+  </si>
+  <si>
+    <t>展示会売価</t>
+  </si>
+  <si>
+    <t>規格</t>
+  </si>
+  <si>
+    <t>売価単位</t>
+  </si>
+  <si>
+    <t>チーズメンチ　60g×10個</t>
+  </si>
+  <si>
+    <t>ＪＦＳＡ</t>
+  </si>
+  <si>
     <t>味のちぬや</t>
   </si>
   <si>
-    <t>チーズメンチ　60g×10個</t>
-  </si>
-  <si>
     <t>m002</t>
   </si>
   <si>
+    <t>ステーキソース和風おろし　1L</t>
+  </si>
+  <si>
     <t>理研ビタミン</t>
   </si>
   <si>
-    <t>ＪＦＳＡ</t>
-  </si>
-  <si>
-    <t>ステーキソース和風おろし　1L</t>
-  </si>
-  <si>
     <t>m040</t>
   </si>
   <si>
     <t>ステーキソースシャリアピン　1L</t>
   </si>
   <si>
+    <t>卵黄マヨネーズ　1Kg</t>
+  </si>
+  <si>
     <t>ケンコーマヨネーズ</t>
   </si>
   <si>
-    <t>卵黄マヨネーズ　1Kg</t>
-  </si>
-  <si>
     <t>m013</t>
   </si>
   <si>
@@ -80,43 +197,19 @@
   </si>
   <si>
     <t>チルド惣菜肉じゃが　1Kg</t>
-  </si>
-  <si>
-    <t>company_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maker_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>展示会売価</t>
-    <rPh sb="0" eb="3">
-      <t>テンジカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>QRコード</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,30 +218,368 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,31 +587,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,80 +1188,188 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFE4919-89A7-4CED-9F36-2C431FD15896}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customHeight="1" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:4">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:3">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:4">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="13.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="6" width="10.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F2" t="str">
         <f>"aaa,"&amp;A2</f>
@@ -521,21 +1379,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="0">"aaa,"&amp;A3</f>
@@ -545,21 +1403,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -569,21 +1427,21 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -593,21 +1451,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -617,21 +1475,21 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -641,21 +1499,21 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -665,21 +1523,21 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -690,7 +1548,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>